--- a/app/data/params/creamcheese.xlsx
+++ b/app/data/params/creamcheese.xlsx
@@ -131,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -161,19 +161,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -225,16 +212,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,10 +227,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -274,7 +253,7 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -332,7 +311,7 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -344,10 +323,10 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -359,7 +338,7 @@
       <c r="E2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="0" t="n">
@@ -385,10 +364,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -400,16 +379,16 @@
       <c r="E3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="4" t="n">
         <v>450</v>
       </c>
-      <c r="M3" s="5" t="n">
+      <c r="M3" s="4" t="n">
         <v>4.7</v>
       </c>
       <c r="N3" s="0" t="n">
@@ -426,10 +405,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -441,16 +420,16 @@
       <c r="E4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="4" t="n">
         <v>450</v>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="M4" s="4" t="n">
         <v>4.7</v>
       </c>
       <c r="N4" s="0" t="n">
@@ -467,10 +446,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -482,7 +461,7 @@
       <c r="E5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="0" t="n">
@@ -491,7 +470,7 @@
       <c r="H5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="4" t="n">
         <v>450</v>
       </c>
       <c r="M5" s="0" t="n">
@@ -511,10 +490,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -526,16 +505,16 @@
       <c r="E6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="4" t="n">
         <v>450</v>
       </c>
-      <c r="M6" s="5" t="n">
+      <c r="M6" s="4" t="n">
         <v>4.7</v>
       </c>
       <c r="N6" s="0" t="n">
@@ -552,10 +531,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -567,16 +546,16 @@
       <c r="E7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="4" t="n">
         <v>450</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="M7" s="4" t="n">
         <v>4.7</v>
       </c>
       <c r="N7" s="0" t="n">
@@ -593,10 +572,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -608,13 +587,13 @@
       <c r="E8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="4" t="n">
         <v>450</v>
       </c>
       <c r="M8" s="0" t="n">
@@ -634,10 +613,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -649,16 +628,16 @@
       <c r="E9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="M9" s="4" t="n">
         <v>4.7</v>
       </c>
       <c r="N9" s="0" t="n">
@@ -675,10 +654,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -690,16 +669,16 @@
       <c r="E10" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="M10" s="4" t="n">
         <v>4.7</v>
       </c>
       <c r="N10" s="0" t="n">

--- a/app/data/params/creamcheese.xlsx
+++ b/app/data/params/creamcheese.xlsx
@@ -253,7 +253,7 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -348,7 +348,7 @@
         <v>450</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>4.7</v>
+        <v>252</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>60</v>
@@ -389,7 +389,7 @@
         <v>450</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.7</v>
+        <v>252</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>60</v>
@@ -430,7 +430,7 @@
         <v>450</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.7</v>
+        <v>252</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>60</v>
@@ -474,7 +474,7 @@
         <v>450</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>4.7</v>
+        <v>252</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>60</v>
@@ -515,7 +515,7 @@
         <v>450</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>4.7</v>
+        <v>252</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>60</v>
@@ -556,7 +556,7 @@
         <v>450</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>4.7</v>
+        <v>252</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>60</v>
@@ -594,10 +594,10 @@
         <v>0.18</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>4.7</v>
+        <v>378</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>60</v>
@@ -638,7 +638,7 @@
         <v>600</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>4.7</v>
+        <v>378</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>60</v>
@@ -679,7 +679,7 @@
         <v>600</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>4.7</v>
+        <v>378</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>60</v>

--- a/app/data/params/creamcheese.xlsx
+++ b/app/data/params/creamcheese.xlsx
@@ -253,7 +253,7 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -344,6 +344,9 @@
       <c r="G2" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H2" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="J2" s="0" t="n">
         <v>450</v>
       </c>
@@ -385,6 +388,9 @@
       <c r="G3" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="H3" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="J3" s="4" t="n">
         <v>450</v>
       </c>
@@ -426,6 +432,9 @@
       <c r="G4" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="H4" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="J4" s="4" t="n">
         <v>450</v>
       </c>
@@ -511,6 +520,9 @@
       <c r="G6" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="J6" s="4" t="n">
         <v>450</v>
       </c>
@@ -552,6 +564,9 @@
       <c r="G7" s="0" t="n">
         <v>0.18</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="J7" s="4" t="n">
         <v>450</v>
       </c>
@@ -592,6 +607,9 @@
       </c>
       <c r="G8" s="0" t="n">
         <v>0.18</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>600</v>
@@ -634,6 +652,9 @@
       <c r="G9" s="0" t="n">
         <v>0.18</v>
       </c>
+      <c r="H9" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="J9" s="4" t="n">
         <v>600</v>
       </c>
@@ -675,8 +696,11 @@
       <c r="G10" s="0" t="n">
         <v>0.18</v>
       </c>
+      <c r="H10" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="J10" s="4" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>378</v>

--- a/app/data/params/creamcheese.xlsx
+++ b/app/data/params/creamcheese.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Срок хранения</t>
   </si>
   <si>
-    <t xml:space="preserve">Упаковщик</t>
+    <t xml:space="preserve">Коэффициент</t>
   </si>
   <si>
     <t xml:space="preserve">Скорость упаковки</t>
@@ -253,7 +253,7 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -350,6 +350,9 @@
       <c r="J2" s="0" t="n">
         <v>450</v>
       </c>
+      <c r="L2" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M2" s="0" t="n">
         <v>252</v>
       </c>
@@ -393,6 +396,9 @@
       </c>
       <c r="J3" s="4" t="n">
         <v>450</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>252</v>
@@ -438,6 +444,9 @@
       <c r="J4" s="4" t="n">
         <v>450</v>
       </c>
+      <c r="L4" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M4" s="4" t="n">
         <v>252</v>
       </c>
@@ -482,6 +491,9 @@
       <c r="J5" s="4" t="n">
         <v>450</v>
       </c>
+      <c r="L5" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M5" s="0" t="n">
         <v>252</v>
       </c>
@@ -526,6 +538,9 @@
       <c r="J6" s="4" t="n">
         <v>450</v>
       </c>
+      <c r="L6" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M6" s="4" t="n">
         <v>252</v>
       </c>
@@ -570,6 +585,9 @@
       <c r="J7" s="4" t="n">
         <v>450</v>
       </c>
+      <c r="L7" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="M7" s="4" t="n">
         <v>252</v>
       </c>
@@ -613,6 +631,9 @@
       </c>
       <c r="J8" s="4" t="n">
         <v>600</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1.333</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>378</v>
@@ -658,6 +679,9 @@
       <c r="J9" s="4" t="n">
         <v>600</v>
       </c>
+      <c r="L9" s="0" t="n">
+        <v>1.333</v>
+      </c>
       <c r="M9" s="4" t="n">
         <v>378</v>
       </c>
@@ -701,6 +725,9 @@
       </c>
       <c r="J10" s="4" t="n">
         <v>450</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>378</v>
